--- a/hardware/ANIMA Small Scale/ANIMA Small Scale BOM.xlsx
+++ b/hardware/ANIMA Small Scale/ANIMA Small Scale BOM.xlsx
@@ -999,7 +999,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,10 +1007,10 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2090,7 +2090,7 @@
     <hyperlink ref="G19" r:id="rId11" display="http://digikey.com/Suppliers/us/Microchip-Technology.page?lang=en"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId12"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId12"/>
   <tableParts count="1">
     <tablePart r:id="rId13"/>
   </tableParts>
